--- a/pred_ohlcv/54/2019-11-17 FX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-17 FX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
         <v>118</v>
       </c>
       <c r="F2" t="n">
-        <v>4764.8205</v>
+        <v>8780.58232881356</v>
       </c>
       <c r="G2" t="n">
-        <v>112.1166666666667</v>
+        <v>111.9666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
         <v>119</v>
@@ -446,12 +454,15 @@
         <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>5890.6941</v>
+        <v>4764.8205</v>
       </c>
       <c r="G3" t="n">
-        <v>112.2666666666667</v>
+        <v>112.1166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>119</v>
@@ -469,15 +480,18 @@
         <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>122.5473285714286</v>
+        <v>5890.6941</v>
       </c>
       <c r="G4" t="n">
-        <v>112.4166666666667</v>
+        <v>112.2666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>119</v>
       </c>
       <c r="F5" t="n">
-        <v>1477.9892</v>
+        <v>122.5473285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>112.5666666666667</v>
+        <v>112.4166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>1477.9892</v>
       </c>
       <c r="G6" t="n">
-        <v>112.6666666666667</v>
+        <v>112.5666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
         <v>116</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n">
-        <v>1540.5028</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>112.75</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>1209.1778</v>
+        <v>1540.5028</v>
       </c>
       <c r="G8" t="n">
-        <v>112.8666666666667</v>
+        <v>112.75</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>116</v>
       </c>
       <c r="F9" t="n">
-        <v>1065.8659</v>
+        <v>1209.1778</v>
       </c>
       <c r="G9" t="n">
-        <v>112.9833333333333</v>
+        <v>112.8666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>116</v>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
         <v>116</v>
       </c>
       <c r="F10" t="n">
-        <v>698.0282</v>
+        <v>1065.8659</v>
       </c>
       <c r="G10" t="n">
-        <v>113.0833333333333</v>
+        <v>112.9833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="n">
-        <v>4.6755</v>
+        <v>698.0282</v>
       </c>
       <c r="G11" t="n">
-        <v>113.2</v>
+        <v>113.0833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>117</v>
       </c>
       <c r="F12" t="n">
-        <v>1093.4049</v>
+        <v>4.6755</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3166666666667</v>
+        <v>113.2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>117</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
       </c>
       <c r="F13" t="n">
-        <v>4408.2401</v>
+        <v>1093.4049</v>
       </c>
       <c r="G13" t="n">
-        <v>113.45</v>
+        <v>113.3166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n">
         <v>118</v>
@@ -729,15 +770,18 @@
         <v>118</v>
       </c>
       <c r="E14" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" t="n">
-        <v>3565.4394</v>
+        <v>4408.2401</v>
       </c>
       <c r="G14" t="n">
-        <v>113.5833333333333</v>
+        <v>113.45</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="n">
-        <v>6130.882471428571</v>
+        <v>3565.4394</v>
       </c>
       <c r="G15" t="n">
-        <v>113.7333333333333</v>
+        <v>113.5833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="n">
-        <v>18179.1922</v>
+        <v>6130.882471428571</v>
       </c>
       <c r="G16" t="n">
-        <v>113.9</v>
+        <v>113.7333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>18179.1922</v>
       </c>
       <c r="G17" t="n">
-        <v>114.05</v>
+        <v>113.9</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>114.2</v>
+        <v>114.05</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>3565.4394</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
-        <v>114.35</v>
+        <v>114.2</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>1135.177028571429</v>
+        <v>3565.4394</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5</v>
+        <v>114.35</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>119</v>
       </c>
       <c r="F21" t="n">
-        <v>7698.839271428571</v>
+        <v>1135.177028571429</v>
       </c>
       <c r="G21" t="n">
-        <v>114.65</v>
+        <v>114.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,18 +999,21 @@
         <v>119</v>
       </c>
       <c r="D22" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="n">
         <v>119</v>
       </c>
       <c r="F22" t="n">
-        <v>7178.1537</v>
+        <v>7698.839271428571</v>
       </c>
       <c r="G22" t="n">
-        <v>114.8</v>
+        <v>114.65</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,18 +1028,21 @@
         <v>119</v>
       </c>
       <c r="D23" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" t="n">
         <v>119</v>
       </c>
       <c r="F23" t="n">
-        <v>22441.9458</v>
+        <v>7178.1537</v>
       </c>
       <c r="G23" t="n">
-        <v>114.95</v>
+        <v>114.8</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>119</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>22441.9458</v>
       </c>
       <c r="G24" t="n">
-        <v>115.1</v>
+        <v>114.95</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>119</v>
       </c>
       <c r="F25" t="n">
-        <v>3025.546528571429</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>115.2666666666667</v>
+        <v>115.1</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>119</v>
       </c>
       <c r="F26" t="n">
-        <v>1617.1452</v>
+        <v>3025.546528571429</v>
       </c>
       <c r="G26" t="n">
-        <v>115.4333333333333</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>119</v>
       </c>
       <c r="F27" t="n">
-        <v>1600</v>
+        <v>1617.1452</v>
       </c>
       <c r="G27" t="n">
-        <v>115.5666666666667</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="n">
-        <v>482.1281</v>
+        <v>1600</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6833333333333</v>
+        <v>115.5666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="n">
         <v>118</v>
@@ -1119,15 +1205,18 @@
         <v>118</v>
       </c>
       <c r="E29" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" t="n">
-        <v>710.3899</v>
+        <v>482.1281</v>
       </c>
       <c r="G29" t="n">
-        <v>115.7833333333333</v>
+        <v>115.6833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" t="n">
         <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>2639.7702</v>
+        <v>710.3899</v>
       </c>
       <c r="G30" t="n">
-        <v>115.85</v>
+        <v>115.7833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>117</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>2639.7702</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9333333333333</v>
+        <v>115.85</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>117</v>
       </c>
       <c r="F32" t="n">
-        <v>8570.625899999999</v>
+        <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>116.0166666666667</v>
+        <v>115.9333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>117</v>
       </c>
       <c r="F33" t="n">
-        <v>4439.4269</v>
+        <v>8570.625899999999</v>
       </c>
       <c r="G33" t="n">
-        <v>116.1</v>
+        <v>116.0166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>117</v>
       </c>
       <c r="F34" t="n">
-        <v>3358.3395</v>
+        <v>4439.4269</v>
       </c>
       <c r="G34" t="n">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>3358.3395</v>
       </c>
       <c r="G35" t="n">
-        <v>116.3333333333333</v>
+        <v>116.2</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F36" t="n">
-        <v>11.4099</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>116.4333333333333</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" t="n">
-        <v>5520.727164102565</v>
+        <v>11.4099</v>
       </c>
       <c r="G37" t="n">
-        <v>116.4833333333333</v>
+        <v>116.4333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>117</v>
       </c>
       <c r="F38" t="n">
-        <v>5561.203435897436</v>
+        <v>5520.727164102565</v>
       </c>
       <c r="G38" t="n">
-        <v>116.5333333333333</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" t="n">
-        <v>23.2981</v>
+        <v>5561.203435897436</v>
       </c>
       <c r="G39" t="n">
-        <v>116.6</v>
+        <v>116.5333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F40" t="n">
-        <v>5369.0323</v>
+        <v>23.2981</v>
       </c>
       <c r="G40" t="n">
-        <v>116.65</v>
+        <v>116.6</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>116</v>
       </c>
       <c r="F41" t="n">
-        <v>14148.9302</v>
+        <v>5369.0323</v>
       </c>
       <c r="G41" t="n">
-        <v>116.7</v>
+        <v>116.65</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>116</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" t="n">
         <v>116</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" t="n">
-        <v>1113.9191</v>
+        <v>14148.9302</v>
       </c>
       <c r="G42" t="n">
-        <v>116.7333333333333</v>
+        <v>116.7</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>116</v>
       </c>
       <c r="C43" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
         <v>116</v>
       </c>
       <c r="E43" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>31.2972</v>
+        <v>1113.9191</v>
       </c>
       <c r="G43" t="n">
-        <v>116.7833333333333</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>116</v>
       </c>
       <c r="F44" t="n">
-        <v>64</v>
+        <v>31.2972</v>
       </c>
       <c r="G44" t="n">
-        <v>116.8333333333333</v>
+        <v>116.7833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" t="n">
-        <v>4.3</v>
+        <v>64</v>
       </c>
       <c r="G45" t="n">
-        <v>116.9166666666667</v>
+        <v>116.8333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>118</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="G46" t="n">
-        <v>117</v>
+        <v>116.9166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F47" t="n">
-        <v>420.33</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>117.0166666666667</v>
+        <v>117</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" t="n">
-        <v>7830.7064</v>
+        <v>420.33</v>
       </c>
       <c r="G48" t="n">
-        <v>117.0666666666667</v>
+        <v>117.0166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,7 +1776,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="n">
         <v>117</v>
@@ -1639,15 +1785,18 @@
         <v>117</v>
       </c>
       <c r="E49" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" t="n">
-        <v>2402.3</v>
+        <v>7830.7064</v>
       </c>
       <c r="G49" t="n">
-        <v>117.1333333333333</v>
+        <v>117.0666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>116</v>
       </c>
       <c r="C50" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50" t="n">
         <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>99</v>
+        <v>2402.3</v>
       </c>
       <c r="G50" t="n">
-        <v>117.1666666666667</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>116</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" t="n">
         <v>116</v>
       </c>
       <c r="E51" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" t="n">
-        <v>3264.1479</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
-        <v>117.1833333333333</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n">
         <v>115</v>
       </c>
       <c r="D52" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
         <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>14687.1777</v>
+        <v>3264.1479</v>
       </c>
       <c r="G52" t="n">
         <v>117.1833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" t="n">
         <v>115</v>
@@ -1743,15 +1901,18 @@
         <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" t="n">
-        <v>2090.7338</v>
+        <v>14687.1777</v>
       </c>
       <c r="G53" t="n">
         <v>117.1833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>114</v>
       </c>
       <c r="C54" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="n">
         <v>114</v>
       </c>
       <c r="F54" t="n">
-        <v>1829.4977</v>
+        <v>2090.7338</v>
       </c>
       <c r="G54" t="n">
         <v>117.1833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" t="n">
-        <v>758.4738</v>
+        <v>1829.4977</v>
       </c>
       <c r="G55" t="n">
-        <v>117.2166666666667</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D56" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>3281.4242</v>
+        <v>758.4738</v>
       </c>
       <c r="G56" t="n">
-        <v>117.2</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" t="n">
-        <v>1425.8707</v>
+        <v>3281.4242</v>
       </c>
       <c r="G57" t="n">
-        <v>117.2333333333333</v>
+        <v>117.2</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>2720.4</v>
+        <v>1425.8707</v>
       </c>
       <c r="G58" t="n">
-        <v>117.25</v>
+        <v>117.2333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>116</v>
       </c>
       <c r="C59" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="n">
         <v>116</v>
       </c>
       <c r="E59" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" t="n">
-        <v>566.037</v>
+        <v>2720.4</v>
       </c>
       <c r="G59" t="n">
-        <v>117.2166666666667</v>
+        <v>117.25</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="n">
-        <v>2137.6872</v>
+        <v>566.037</v>
       </c>
       <c r="G60" t="n">
-        <v>117.2333333333333</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>117</v>
       </c>
       <c r="F61" t="n">
-        <v>865.0823</v>
+        <v>2137.6872</v>
       </c>
       <c r="G61" t="n">
-        <v>117.2166666666667</v>
+        <v>117.2333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>117</v>
       </c>
       <c r="F62" t="n">
-        <v>782.8622</v>
+        <v>865.0823</v>
       </c>
       <c r="G62" t="n">
-        <v>117.1833333333333</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" t="n">
-        <v>4.3</v>
+        <v>782.8622</v>
       </c>
       <c r="G63" t="n">
-        <v>117.1666666666667</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>118</v>
       </c>
       <c r="F64" t="n">
-        <v>9865.8487</v>
+        <v>4.3</v>
       </c>
       <c r="G64" t="n">
-        <v>117.15</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F65" t="n">
-        <v>278.9448</v>
+        <v>9865.8487</v>
       </c>
       <c r="G65" t="n">
-        <v>117.1</v>
+        <v>117.15</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>116</v>
       </c>
       <c r="F66" t="n">
-        <v>188.7743</v>
+        <v>278.9448</v>
       </c>
       <c r="G66" t="n">
         <v>117.1</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" t="n">
-        <v>2875.2587</v>
+        <v>188.7743</v>
       </c>
       <c r="G67" t="n">
-        <v>117.1333333333333</v>
+        <v>117.1</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" t="n">
-        <v>18233.3645</v>
+        <v>2875.2587</v>
       </c>
       <c r="G68" t="n">
-        <v>117.15</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>116</v>
       </c>
       <c r="C69" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D69" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" t="n">
         <v>116</v>
       </c>
       <c r="F69" t="n">
-        <v>179.3356</v>
+        <v>18233.3645</v>
       </c>
       <c r="G69" t="n">
-        <v>117.1333333333333</v>
+        <v>117.15</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>6691.1955</v>
+        <v>179.3356</v>
       </c>
       <c r="G70" t="n">
         <v>117.1333333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>6691.1955</v>
       </c>
       <c r="G71" t="n">
         <v>117.1333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" t="n">
-        <v>38.7364</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>117.1166666666667</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73" t="n">
-        <v>3328</v>
+        <v>38.7364</v>
       </c>
       <c r="G73" t="n">
-        <v>117.1</v>
+        <v>117.1166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>117</v>
       </c>
       <c r="F74" t="n">
-        <v>135.6715</v>
+        <v>3328</v>
       </c>
       <c r="G74" t="n">
-        <v>117.0833333333333</v>
+        <v>117.1</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>117</v>
       </c>
       <c r="F75" t="n">
-        <v>1283.6958</v>
+        <v>135.6715</v>
       </c>
       <c r="G75" t="n">
-        <v>117.05</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>117</v>
       </c>
       <c r="F76" t="n">
-        <v>5498.159</v>
+        <v>1283.6958</v>
       </c>
       <c r="G76" t="n">
-        <v>117</v>
+        <v>117.05</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>5498.159</v>
       </c>
       <c r="G77" t="n">
-        <v>116.95</v>
+        <v>117</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>116</v>
       </c>
       <c r="F78" t="n">
-        <v>11269.7921</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>116.9</v>
+        <v>116.95</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>116</v>
       </c>
       <c r="C79" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" t="n">
         <v>116</v>
       </c>
       <c r="F79" t="n">
-        <v>11547.7096</v>
+        <v>11269.7921</v>
       </c>
       <c r="G79" t="n">
-        <v>116.8666666666667</v>
+        <v>116.9</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>116</v>
       </c>
       <c r="C80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" t="n">
         <v>116</v>
       </c>
       <c r="F80" t="n">
-        <v>3283.6235</v>
+        <v>11547.7096</v>
       </c>
       <c r="G80" t="n">
-        <v>116.8166666666667</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E81" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>3283.6235</v>
       </c>
       <c r="G81" t="n">
-        <v>116.7833333333333</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>117</v>
       </c>
       <c r="C82" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D82" t="n">
         <v>117</v>
       </c>
       <c r="E82" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F82" t="n">
-        <v>8748.4985</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>116.7166666666667</v>
+        <v>116.7833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,7 +2765,7 @@
         <v>117</v>
       </c>
       <c r="C83" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" t="n">
         <v>117</v>
@@ -2526,12 +2774,15 @@
         <v>115</v>
       </c>
       <c r="F83" t="n">
-        <v>9873.8652</v>
+        <v>8748.4985</v>
       </c>
       <c r="G83" t="n">
-        <v>116.6666666666667</v>
+        <v>116.7166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
         <v>116</v>
       </c>
       <c r="D84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F84" t="n">
-        <v>480.5228</v>
+        <v>9873.8652</v>
       </c>
       <c r="G84" t="n">
-        <v>116.6166666666667</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>116</v>
       </c>
       <c r="F85" t="n">
-        <v>7738.7203</v>
+        <v>480.5228</v>
       </c>
       <c r="G85" t="n">
-        <v>116.5666666666667</v>
+        <v>116.6166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>116</v>
       </c>
       <c r="F86" t="n">
-        <v>4587.7632</v>
+        <v>7738.7203</v>
       </c>
       <c r="G86" t="n">
-        <v>116.5166666666667</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>116</v>
       </c>
       <c r="F87" t="n">
-        <v>4430.4015</v>
+        <v>4587.7632</v>
       </c>
       <c r="G87" t="n">
-        <v>116.4666666666667</v>
+        <v>116.5166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" t="n">
         <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F88" t="n">
-        <v>15210.48</v>
+        <v>4430.4015</v>
       </c>
       <c r="G88" t="n">
-        <v>116.4166666666667</v>
+        <v>116.4666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>15210.48</v>
       </c>
       <c r="G89" t="n">
-        <v>116.4</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F90" t="n">
-        <v>12737.3108</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>116.3833333333333</v>
+        <v>116.4</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>116</v>
       </c>
       <c r="F91" t="n">
-        <v>3700.8395</v>
+        <v>12737.3108</v>
       </c>
       <c r="G91" t="n">
-        <v>116.3666666666667</v>
+        <v>116.3833333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E92" t="n">
         <v>116</v>
       </c>
       <c r="F92" t="n">
-        <v>183.2957</v>
+        <v>3700.8395</v>
       </c>
       <c r="G92" t="n">
         <v>116.3666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>116</v>
       </c>
       <c r="C93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
         <v>116</v>
       </c>
       <c r="F93" t="n">
-        <v>2356.1577</v>
+        <v>183.2957</v>
       </c>
       <c r="G93" t="n">
-        <v>116.35</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F94" t="n">
-        <v>8631.371499999999</v>
+        <v>2356.1577</v>
       </c>
       <c r="G94" t="n">
-        <v>116.3166666666667</v>
+        <v>116.35</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>8631.371499999999</v>
       </c>
       <c r="G95" t="n">
-        <v>116.2833333333333</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>117</v>
       </c>
       <c r="F96" t="n">
-        <v>731</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>116.2666666666667</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>117</v>
       </c>
       <c r="F97" t="n">
-        <v>16536.838</v>
+        <v>731</v>
       </c>
       <c r="G97" t="n">
         <v>116.2666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>117</v>
       </c>
       <c r="F98" t="n">
-        <v>541.843</v>
+        <v>16536.838</v>
       </c>
       <c r="G98" t="n">
         <v>116.2666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>5304.1379</v>
+        <v>541.843</v>
       </c>
       <c r="G99" t="n">
-        <v>116.25</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>6182.9486</v>
+        <v>5304.1379</v>
       </c>
       <c r="G100" t="n">
         <v>116.25</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E101" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F101" t="n">
-        <v>5991.3987</v>
+        <v>6182.9486</v>
       </c>
       <c r="G101" t="n">
-        <v>116.2833333333333</v>
+        <v>116.25</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>118</v>
       </c>
       <c r="F102" t="n">
-        <v>1614.2632</v>
+        <v>5991.3987</v>
       </c>
       <c r="G102" t="n">
-        <v>116.3333333333333</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D103" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" t="n">
-        <v>37692.0931</v>
+        <v>1614.2632</v>
       </c>
       <c r="G103" t="n">
-        <v>116.4166666666667</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>119</v>
+      </c>
+      <c r="C104" t="n">
         <v>121</v>
       </c>
-      <c r="C104" t="n">
-        <v>120</v>
-      </c>
       <c r="D104" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" t="n">
-        <v>33323.5377</v>
+        <v>37692.0931</v>
       </c>
       <c r="G104" t="n">
-        <v>116.4833333333333</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>121</v>
       </c>
       <c r="C105" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D105" t="n">
         <v>122</v>
       </c>
       <c r="E105" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105" t="n">
-        <v>9432.8578</v>
+        <v>33323.5377</v>
       </c>
       <c r="G105" t="n">
-        <v>116.55</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>121</v>
+      </c>
+      <c r="C106" t="n">
         <v>122</v>
       </c>
-      <c r="C106" t="n">
-        <v>125</v>
-      </c>
       <c r="D106" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E106" t="n">
         <v>121</v>
       </c>
       <c r="F106" t="n">
-        <v>65416.0342</v>
+        <v>9432.8578</v>
       </c>
       <c r="G106" t="n">
-        <v>116.6666666666667</v>
+        <v>116.55</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D107" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E107" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F107" t="n">
-        <v>68090.7838</v>
+        <v>65416.0342</v>
       </c>
       <c r="G107" t="n">
-        <v>116.8833333333333</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D108" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F108" t="n">
-        <v>2227.2249</v>
+        <v>68090.7838</v>
       </c>
       <c r="G108" t="n">
-        <v>117.05</v>
+        <v>116.8833333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D109" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" t="n">
         <v>125</v>
       </c>
       <c r="F109" t="n">
-        <v>30008.9637</v>
+        <v>2227.2249</v>
       </c>
       <c r="G109" t="n">
-        <v>117.1833333333333</v>
+        <v>117.05</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C110" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D110" t="n">
         <v>128</v>
       </c>
       <c r="E110" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F110" t="n">
-        <v>36729.2202</v>
+        <v>30008.9637</v>
       </c>
       <c r="G110" t="n">
-        <v>117.3833333333333</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" t="n">
         <v>128</v>
       </c>
       <c r="D111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" t="n">
         <v>128</v>
       </c>
       <c r="F111" t="n">
-        <v>2455.213</v>
+        <v>36729.2202</v>
       </c>
       <c r="G111" t="n">
-        <v>117.6</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C112" t="n">
         <v>128</v>
       </c>
       <c r="D112" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" t="n">
         <v>128</v>
       </c>
       <c r="F112" t="n">
-        <v>15275.4055</v>
+        <v>2455.213</v>
       </c>
       <c r="G112" t="n">
-        <v>117.8166666666667</v>
+        <v>117.6</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C113" t="n">
         <v>128</v>
       </c>
       <c r="D113" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E113" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F113" t="n">
-        <v>5047.5385</v>
+        <v>15275.4055</v>
       </c>
       <c r="G113" t="n">
-        <v>118.0333333333333</v>
+        <v>117.8166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>126</v>
       </c>
       <c r="C114" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D114" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E114" t="n">
         <v>126</v>
       </c>
       <c r="F114" t="n">
-        <v>9652.2719</v>
+        <v>5047.5385</v>
       </c>
       <c r="G114" t="n">
-        <v>118.2333333333333</v>
+        <v>118.0333333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>126</v>
       </c>
       <c r="C115" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D115" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E115" t="n">
         <v>126</v>
       </c>
       <c r="F115" t="n">
-        <v>49749.7133</v>
+        <v>9652.2719</v>
       </c>
       <c r="G115" t="n">
-        <v>118.4666666666667</v>
+        <v>118.2333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C116" t="n">
         <v>130</v>
       </c>
       <c r="D116" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F116" t="n">
-        <v>3469.3826</v>
+        <v>49749.7133</v>
       </c>
       <c r="G116" t="n">
-        <v>118.7333333333333</v>
+        <v>118.4666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>130</v>
       </c>
       <c r="C117" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D117" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E117" t="n">
         <v>130</v>
       </c>
       <c r="F117" t="n">
-        <v>57981.4813</v>
+        <v>3469.3826</v>
       </c>
       <c r="G117" t="n">
-        <v>119.05</v>
+        <v>118.7333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C118" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D118" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E118" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F118" t="n">
-        <v>28769.4982</v>
+        <v>57981.4813</v>
       </c>
       <c r="G118" t="n">
-        <v>119.35</v>
+        <v>119.05</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,10 +3806,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" t="n">
         <v>135</v>
@@ -3462,12 +3818,15 @@
         <v>132</v>
       </c>
       <c r="F119" t="n">
-        <v>49239.5994</v>
+        <v>28769.4982</v>
       </c>
       <c r="G119" t="n">
-        <v>119.6333333333333</v>
+        <v>119.35</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>134</v>
+      </c>
+      <c r="C120" t="n">
         <v>133</v>
       </c>
-      <c r="C120" t="n">
-        <v>130</v>
-      </c>
       <c r="D120" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E120" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F120" t="n">
-        <v>17156.9618</v>
+        <v>49239.5994</v>
       </c>
       <c r="G120" t="n">
-        <v>119.85</v>
+        <v>119.6333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C121" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D121" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" t="n">
         <v>130</v>
       </c>
       <c r="F121" t="n">
-        <v>3305.9669</v>
+        <v>17156.9618</v>
       </c>
       <c r="G121" t="n">
-        <v>120.1</v>
+        <v>119.85</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C122" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D122" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E122" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F122" t="n">
-        <v>54383.37027037037</v>
+        <v>3305.9669</v>
       </c>
       <c r="G122" t="n">
-        <v>120.3833333333333</v>
+        <v>120.1</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D123" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E123" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F123" t="n">
-        <v>14948.3019</v>
+        <v>54383.37027037037</v>
       </c>
       <c r="G123" t="n">
-        <v>120.5666666666667</v>
+        <v>120.3833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>131</v>
+      </c>
+      <c r="C124" t="n">
         <v>129</v>
       </c>
-      <c r="C124" t="n">
-        <v>128</v>
-      </c>
       <c r="D124" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E124" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F124" t="n">
-        <v>2997.308</v>
+        <v>14948.3019</v>
       </c>
       <c r="G124" t="n">
-        <v>120.7333333333333</v>
+        <v>120.5666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>129</v>
+      </c>
+      <c r="C125" t="n">
+        <v>128</v>
+      </c>
+      <c r="D125" t="n">
         <v>132</v>
       </c>
-      <c r="C125" t="n">
-        <v>131</v>
-      </c>
-      <c r="D125" t="n">
-        <v>133</v>
-      </c>
       <c r="E125" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F125" t="n">
-        <v>13676.5634</v>
+        <v>2997.308</v>
       </c>
       <c r="G125" t="n">
-        <v>120.9833333333333</v>
+        <v>120.7333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>132</v>
+      </c>
+      <c r="C126" t="n">
         <v>131</v>
       </c>
-      <c r="C126" t="n">
-        <v>129</v>
-      </c>
       <c r="D126" t="n">
+        <v>133</v>
+      </c>
+      <c r="E126" t="n">
         <v>131</v>
       </c>
-      <c r="E126" t="n">
-        <v>129</v>
-      </c>
       <c r="F126" t="n">
-        <v>1257.4671</v>
+        <v>13676.5634</v>
       </c>
       <c r="G126" t="n">
-        <v>121.2</v>
+        <v>120.9833333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>129</v>
       </c>
       <c r="F127" t="n">
-        <v>6731.5981</v>
+        <v>1257.4671</v>
       </c>
       <c r="G127" t="n">
-        <v>121.4</v>
+        <v>121.2</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>6731.5981</v>
       </c>
       <c r="G128" t="n">
-        <v>121.5666666666667</v>
+        <v>121.4</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="n">
         <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F129" t="n">
-        <v>13448.6865</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>121.7666666666667</v>
+        <v>121.5666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,10 +4125,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" t="n">
         <v>129</v>
@@ -3748,12 +4137,15 @@
         <v>127</v>
       </c>
       <c r="F130" t="n">
-        <v>6731.0777</v>
+        <v>13448.6865</v>
       </c>
       <c r="G130" t="n">
-        <v>121.9833333333333</v>
+        <v>121.7666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>128</v>
       </c>
       <c r="C131" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D131" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F131" t="n">
-        <v>4354.0826</v>
+        <v>6731.0777</v>
       </c>
       <c r="G131" t="n">
-        <v>122.1666666666667</v>
+        <v>121.9833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +4183,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" t="n">
         <v>128</v>
@@ -3800,12 +4195,15 @@
         <v>128</v>
       </c>
       <c r="F132" t="n">
-        <v>646.1778</v>
+        <v>4354.0826</v>
       </c>
       <c r="G132" t="n">
-        <v>122.3666666666667</v>
+        <v>122.1666666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D133" t="n">
         <v>130</v>
       </c>
       <c r="E133" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>646.1778</v>
       </c>
       <c r="G133" t="n">
-        <v>122.5833333333333</v>
+        <v>122.3666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C134" t="n">
         <v>130</v>
@@ -3849,15 +4250,18 @@
         <v>130</v>
       </c>
       <c r="E134" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F134" t="n">
-        <v>416.7058</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>122.8</v>
+        <v>122.5833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>128</v>
       </c>
       <c r="C135" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D135" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" t="n">
         <v>128</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>416.7058</v>
       </c>
       <c r="G135" t="n">
-        <v>122.9833333333333</v>
+        <v>122.8</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" t="n">
         <v>128</v>
       </c>
       <c r="D136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E136" t="n">
         <v>128</v>
       </c>
       <c r="F136" t="n">
-        <v>1326.7033</v>
+        <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>123.1666666666667</v>
+        <v>122.9833333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,10 +4328,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C137" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D137" t="n">
         <v>129</v>
@@ -3930,12 +4340,15 @@
         <v>128</v>
       </c>
       <c r="F137" t="n">
-        <v>3253.8247</v>
+        <v>1326.7033</v>
       </c>
       <c r="G137" t="n">
-        <v>123.3833333333333</v>
+        <v>123.1666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C138" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D138" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E138" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F138" t="n">
-        <v>49752.6021</v>
+        <v>3253.8247</v>
       </c>
       <c r="G138" t="n">
-        <v>123.4666666666667</v>
+        <v>123.3833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C139" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D139" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E139" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F139" t="n">
-        <v>21735.1974</v>
+        <v>49752.6021</v>
       </c>
       <c r="G139" t="n">
-        <v>123.5666666666667</v>
+        <v>123.4666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C140" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D140" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E140" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F140" t="n">
-        <v>26994.60607067669</v>
+        <v>21735.1974</v>
       </c>
       <c r="G140" t="n">
-        <v>123.85</v>
+        <v>123.5666666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C141" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D141" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E141" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F141" t="n">
-        <v>11806.1483</v>
+        <v>26994.60607067669</v>
       </c>
       <c r="G141" t="n">
-        <v>124.05</v>
+        <v>123.85</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C142" t="n">
         <v>129</v>
       </c>
       <c r="D142" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E142" t="n">
         <v>129</v>
       </c>
       <c r="F142" t="n">
-        <v>354.1471</v>
+        <v>11806.1483</v>
       </c>
       <c r="G142" t="n">
-        <v>124.2833333333333</v>
+        <v>124.05</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C143" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D143" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E143" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F143" t="n">
-        <v>7716.5372</v>
+        <v>354.1471</v>
       </c>
       <c r="G143" t="n">
-        <v>124.4333333333333</v>
+        <v>124.2833333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>126</v>
       </c>
       <c r="C144" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D144" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E144" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F144" t="n">
-        <v>13438.22669469697</v>
+        <v>7716.5372</v>
       </c>
       <c r="G144" t="n">
-        <v>124.7</v>
+        <v>124.4333333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C145" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D145" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E145" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F145" t="n">
-        <v>236.431</v>
+        <v>13438.22669469697</v>
       </c>
       <c r="G145" t="n">
-        <v>124.9</v>
+        <v>124.7</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D146" t="n">
         <v>129</v>
       </c>
       <c r="E146" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F146" t="n">
-        <v>10296.4468</v>
+        <v>236.431</v>
       </c>
       <c r="G146" t="n">
-        <v>125.0666666666667</v>
+        <v>124.9</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C147" t="n">
         <v>126</v>
       </c>
       <c r="D147" t="n">
+        <v>129</v>
+      </c>
+      <c r="E147" t="n">
         <v>126</v>
       </c>
-      <c r="E147" t="n">
-        <v>125</v>
-      </c>
       <c r="F147" t="n">
-        <v>733.5077</v>
+        <v>10296.4468</v>
       </c>
       <c r="G147" t="n">
-        <v>125.2333333333333</v>
+        <v>125.0666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>125</v>
       </c>
       <c r="C148" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D148" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E148" t="n">
         <v>125</v>
       </c>
       <c r="F148" t="n">
-        <v>6067.1563</v>
+        <v>733.5077</v>
       </c>
       <c r="G148" t="n">
-        <v>125.4666666666667</v>
+        <v>125.2333333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E149" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F149" t="n">
-        <v>13</v>
+        <v>6067.1563</v>
       </c>
       <c r="G149" t="n">
-        <v>125.6833333333333</v>
+        <v>125.4666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F150" t="n">
-        <v>77.2811</v>
+        <v>13</v>
       </c>
       <c r="G150" t="n">
-        <v>125.8666666666667</v>
+        <v>125.6833333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D151" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E151" t="n">
         <v>127</v>
       </c>
       <c r="F151" t="n">
-        <v>7744.485116923077</v>
+        <v>77.2811</v>
       </c>
       <c r="G151" t="n">
-        <v>126.0833333333333</v>
+        <v>125.8666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C152" t="n">
         <v>129</v>
       </c>
       <c r="D152" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E152" t="n">
         <v>127</v>
       </c>
       <c r="F152" t="n">
-        <v>1804</v>
+        <v>7744.485116923077</v>
       </c>
       <c r="G152" t="n">
-        <v>126.2833333333333</v>
+        <v>126.0833333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C153" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D153" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E153" t="n">
         <v>127</v>
       </c>
       <c r="F153" t="n">
-        <v>896.6059</v>
+        <v>1804</v>
       </c>
       <c r="G153" t="n">
-        <v>126.4833333333333</v>
+        <v>126.2833333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,10 +4821,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C154" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D154" t="n">
         <v>130</v>
@@ -4372,12 +4833,15 @@
         <v>127</v>
       </c>
       <c r="F154" t="n">
-        <v>3115.9534</v>
+        <v>896.6059</v>
       </c>
       <c r="G154" t="n">
-        <v>126.6833333333333</v>
+        <v>126.4833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C155" t="n">
         <v>127</v>
       </c>
       <c r="D155" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E155" t="n">
         <v>127</v>
       </c>
       <c r="F155" t="n">
-        <v>3084.4952</v>
+        <v>3115.9534</v>
       </c>
       <c r="G155" t="n">
-        <v>126.85</v>
+        <v>126.6833333333333</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>127</v>
       </c>
       <c r="C156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" t="n">
         <v>127</v>
       </c>
       <c r="E156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F156" t="n">
-        <v>10399.9716</v>
+        <v>3084.4952</v>
       </c>
       <c r="G156" t="n">
-        <v>127</v>
+        <v>126.85</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>126</v>
       </c>
       <c r="F157" t="n">
-        <v>13624.4252</v>
+        <v>10399.9716</v>
       </c>
       <c r="G157" t="n">
-        <v>127.15</v>
+        <v>127</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>127</v>
       </c>
       <c r="C158" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D158" t="n">
         <v>127</v>
       </c>
       <c r="E158" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F158" t="n">
-        <v>799.9912</v>
+        <v>13624.4252</v>
       </c>
       <c r="G158" t="n">
-        <v>127.3166666666667</v>
+        <v>127.15</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E159" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F159" t="n">
-        <v>2026.0715</v>
+        <v>799.9912</v>
       </c>
       <c r="G159" t="n">
-        <v>127.5</v>
+        <v>127.3166666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>128</v>
       </c>
       <c r="C160" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D160" t="n">
         <v>128</v>
       </c>
       <c r="E160" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F160" t="n">
-        <v>299.4982</v>
+        <v>2026.0715</v>
       </c>
       <c r="G160" t="n">
-        <v>127.6833333333333</v>
+        <v>127.5</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>128</v>
+      </c>
+      <c r="C161" t="n">
         <v>127</v>
       </c>
-      <c r="C161" t="n">
-        <v>126</v>
-      </c>
       <c r="D161" t="n">
+        <v>128</v>
+      </c>
+      <c r="E161" t="n">
         <v>127</v>
       </c>
-      <c r="E161" t="n">
-        <v>126</v>
-      </c>
       <c r="F161" t="n">
-        <v>8368.898999999999</v>
+        <v>299.4982</v>
       </c>
       <c r="G161" t="n">
-        <v>127.8166666666667</v>
+        <v>127.6833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>127</v>
       </c>
       <c r="C162" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D162" t="n">
         <v>127</v>
       </c>
       <c r="E162" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F162" t="n">
-        <v>1405.9045</v>
+        <v>8368.898999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>127.9666666666667</v>
+        <v>127.8166666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>127</v>
       </c>
       <c r="F163" t="n">
-        <v>1987.4487</v>
+        <v>1405.9045</v>
       </c>
       <c r="G163" t="n">
-        <v>128.0666666666667</v>
+        <v>127.9666666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>127</v>
       </c>
       <c r="F164" t="n">
-        <v>761.817</v>
+        <v>1987.4487</v>
       </c>
       <c r="G164" t="n">
-        <v>128.1833333333333</v>
+        <v>128.0666666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>127</v>
       </c>
       <c r="F165" t="n">
-        <v>859.6529</v>
+        <v>761.817</v>
       </c>
       <c r="G165" t="n">
-        <v>128.2666666666667</v>
+        <v>128.1833333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>127</v>
       </c>
       <c r="F166" t="n">
-        <v>1535.006</v>
+        <v>859.6529</v>
       </c>
       <c r="G166" t="n">
-        <v>128.3</v>
+        <v>128.2666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" t="n">
         <v>127</v>
       </c>
       <c r="D167" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E167" t="n">
         <v>127</v>
       </c>
       <c r="F167" t="n">
-        <v>43.653</v>
+        <v>1535.006</v>
       </c>
       <c r="G167" t="n">
-        <v>128.2833333333333</v>
+        <v>128.3</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>128</v>
       </c>
       <c r="C168" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D168" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E168" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F168" t="n">
-        <v>6124.5999</v>
+        <v>43.653</v>
       </c>
       <c r="G168" t="n">
-        <v>128.3166666666667</v>
+        <v>128.2833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>128</v>
+      </c>
+      <c r="C169" t="n">
         <v>129</v>
       </c>
-      <c r="C169" t="n">
-        <v>130</v>
-      </c>
       <c r="D169" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E169" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F169" t="n">
-        <v>12118.93148307692</v>
+        <v>6124.5999</v>
       </c>
       <c r="G169" t="n">
-        <v>128.4</v>
+        <v>128.3166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" t="n">
         <v>130</v>
       </c>
       <c r="D170" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E170" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F170" t="n">
-        <v>45498.78471692307</v>
+        <v>12118.93148307692</v>
       </c>
       <c r="G170" t="n">
-        <v>128.4333333333333</v>
+        <v>128.4</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C171" t="n">
         <v>130</v>
       </c>
       <c r="D171" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E171" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F171" t="n">
-        <v>890.0436</v>
+        <v>45498.78471692307</v>
       </c>
       <c r="G171" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4333333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C172" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E172" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F172" t="n">
-        <v>17580.8566</v>
+        <v>890.0436</v>
       </c>
       <c r="G172" t="n">
-        <v>128.5166666666667</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4860,18 +5378,21 @@
         <v>131</v>
       </c>
       <c r="D173" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E173" t="n">
         <v>131</v>
       </c>
       <c r="F173" t="n">
-        <v>3978.7385</v>
+        <v>17580.8566</v>
       </c>
       <c r="G173" t="n">
-        <v>128.5666666666667</v>
+        <v>128.5166666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,21 +5404,24 @@
         <v>131</v>
       </c>
       <c r="C174" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D174" t="n">
         <v>132</v>
       </c>
       <c r="E174" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F174" t="n">
-        <v>11325.70990530303</v>
+        <v>3978.7385</v>
       </c>
       <c r="G174" t="n">
-        <v>128.6666666666667</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>131</v>
+      </c>
+      <c r="C175" t="n">
         <v>132</v>
       </c>
-      <c r="C175" t="n">
-        <v>131</v>
-      </c>
       <c r="D175" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E175" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F175" t="n">
-        <v>15931.3014</v>
+        <v>11325.70990530303</v>
       </c>
       <c r="G175" t="n">
-        <v>128.6833333333333</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C176" t="n">
         <v>131</v>
@@ -4944,12 +5471,15 @@
         <v>131</v>
       </c>
       <c r="F176" t="n">
-        <v>811.4140992481204</v>
+        <v>15931.3014</v>
       </c>
       <c r="G176" t="n">
-        <v>128.7</v>
+        <v>128.6833333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4961,7 +5491,7 @@
         <v>131</v>
       </c>
       <c r="C177" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D177" t="n">
         <v>133</v>
@@ -4970,12 +5500,15 @@
         <v>131</v>
       </c>
       <c r="F177" t="n">
-        <v>14303.4615</v>
+        <v>811.4140992481204</v>
       </c>
       <c r="G177" t="n">
-        <v>128.6666666666667</v>
+        <v>128.7</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,7 +5520,7 @@
         <v>131</v>
       </c>
       <c r="C178" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D178" t="n">
         <v>133</v>
@@ -4996,12 +5529,15 @@
         <v>131</v>
       </c>
       <c r="F178" t="n">
-        <v>90462.4081</v>
+        <v>14303.4615</v>
       </c>
       <c r="G178" t="n">
-        <v>128.65</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5016,18 +5552,21 @@
         <v>131</v>
       </c>
       <c r="D179" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E179" t="n">
         <v>131</v>
       </c>
       <c r="F179" t="n">
-        <v>49682.2045</v>
+        <v>90462.4081</v>
       </c>
       <c r="G179" t="n">
-        <v>128.6166666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E180" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F180" t="n">
-        <v>1835.2071</v>
+        <v>49682.2045</v>
       </c>
       <c r="G180" t="n">
         <v>128.6166666666667</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C181" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D181" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E181" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F181" t="n">
-        <v>19183.6791</v>
+        <v>1835.2071</v>
       </c>
       <c r="G181" t="n">
-        <v>128.6</v>
+        <v>128.6166666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C182" t="n">
         <v>131</v>
       </c>
       <c r="D182" t="n">
+        <v>132</v>
+      </c>
+      <c r="E182" t="n">
         <v>131</v>
       </c>
-      <c r="E182" t="n">
-        <v>130</v>
-      </c>
       <c r="F182" t="n">
-        <v>22</v>
+        <v>19183.6791</v>
       </c>
       <c r="G182" t="n">
-        <v>128.55</v>
+        <v>128.6</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C183" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D183" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E183" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F183" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G183" t="n">
-        <v>128.6</v>
+        <v>128.55</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E184" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F184" t="n">
-        <v>10005.8238</v>
+        <v>4</v>
       </c>
       <c r="G184" t="n">
-        <v>128.65</v>
+        <v>128.6</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E185" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F185" t="n">
-        <v>4</v>
+        <v>10005.8238</v>
       </c>
       <c r="G185" t="n">
-        <v>128.6666666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C186" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D186" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E186" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F186" t="n">
-        <v>423.9776</v>
+        <v>4</v>
       </c>
       <c r="G186" t="n">
-        <v>128.7</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5778,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C187" t="n">
         <v>131</v>
@@ -5227,15 +5787,18 @@
         <v>131</v>
       </c>
       <c r="E187" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F187" t="n">
-        <v>9.2104</v>
+        <v>423.9776</v>
       </c>
       <c r="G187" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E188" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F188" t="n">
-        <v>5345.2172</v>
+        <v>9.2104</v>
       </c>
       <c r="G188" t="n">
-        <v>128.7666666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>130</v>
       </c>
       <c r="F189" t="n">
-        <v>4065.4288</v>
+        <v>5345.2172</v>
       </c>
       <c r="G189" t="n">
-        <v>128.8</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>130</v>
       </c>
       <c r="C190" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D190" t="n">
         <v>130</v>
       </c>
       <c r="E190" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F190" t="n">
-        <v>15385.51</v>
+        <v>4065.4288</v>
       </c>
       <c r="G190" t="n">
         <v>128.8</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,10 +5894,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>130</v>
+      </c>
+      <c r="C191" t="n">
         <v>129</v>
-      </c>
-      <c r="C191" t="n">
-        <v>130</v>
       </c>
       <c r="D191" t="n">
         <v>130</v>
@@ -5334,12 +5906,15 @@
         <v>129</v>
       </c>
       <c r="F191" t="n">
-        <v>11667.1017</v>
+        <v>15385.51</v>
       </c>
       <c r="G191" t="n">
-        <v>128.8333333333333</v>
+        <v>128.8</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C192" t="n">
         <v>130</v>
@@ -5357,15 +5932,18 @@
         <v>130</v>
       </c>
       <c r="E192" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F192" t="n">
-        <v>519.0558</v>
+        <v>11667.1017</v>
       </c>
       <c r="G192" t="n">
-        <v>128.8666666666667</v>
+        <v>128.8333333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>130</v>
       </c>
       <c r="C193" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D193" t="n">
         <v>130</v>
       </c>
       <c r="E193" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F193" t="n">
-        <v>1720.9873</v>
+        <v>519.0558</v>
       </c>
       <c r="G193" t="n">
-        <v>128.85</v>
+        <v>128.8666666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>130</v>
+      </c>
+      <c r="C194" t="n">
         <v>129</v>
       </c>
-      <c r="C194" t="n">
-        <v>131</v>
-      </c>
       <c r="D194" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E194" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F194" t="n">
-        <v>39484.884</v>
+        <v>1720.9873</v>
       </c>
       <c r="G194" t="n">
-        <v>128.8666666666667</v>
+        <v>128.85</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C195" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D195" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E195" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F195" t="n">
-        <v>7847.2331</v>
+        <v>39484.884</v>
       </c>
       <c r="G195" t="n">
-        <v>128.85</v>
+        <v>128.8666666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>128</v>
       </c>
       <c r="C196" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D196" t="n">
         <v>128</v>
       </c>
       <c r="E196" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F196" t="n">
-        <v>1445.8808</v>
+        <v>7847.2331</v>
       </c>
       <c r="G196" t="n">
         <v>128.85</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>128</v>
       </c>
       <c r="C197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D197" t="n">
         <v>128</v>
       </c>
       <c r="E197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F197" t="n">
-        <v>6143.9714</v>
+        <v>1445.8808</v>
       </c>
       <c r="G197" t="n">
-        <v>128.8166666666667</v>
+        <v>128.85</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>128</v>
+      </c>
+      <c r="C198" t="n">
         <v>127</v>
       </c>
-      <c r="C198" t="n">
-        <v>126</v>
-      </c>
       <c r="D198" t="n">
+        <v>128</v>
+      </c>
+      <c r="E198" t="n">
         <v>127</v>
       </c>
-      <c r="E198" t="n">
-        <v>126</v>
-      </c>
       <c r="F198" t="n">
-        <v>6771.6847</v>
+        <v>6143.9714</v>
       </c>
       <c r="G198" t="n">
-        <v>128.9</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>127</v>
+      </c>
+      <c r="C199" t="n">
         <v>126</v>
       </c>
-      <c r="C199" t="n">
-        <v>125</v>
-      </c>
       <c r="D199" t="n">
+        <v>127</v>
+      </c>
+      <c r="E199" t="n">
         <v>126</v>
       </c>
-      <c r="E199" t="n">
-        <v>125</v>
-      </c>
       <c r="F199" t="n">
-        <v>8979.43</v>
+        <v>6771.6847</v>
       </c>
       <c r="G199" t="n">
-        <v>128.9333333333333</v>
+        <v>128.9</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,21 +6158,24 @@
         <v>126</v>
       </c>
       <c r="C200" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D200" t="n">
         <v>126</v>
       </c>
       <c r="E200" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F200" t="n">
-        <v>3673.7595</v>
+        <v>8979.43</v>
       </c>
       <c r="G200" t="n">
-        <v>128.8166666666667</v>
+        <v>128.9333333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,7 +6184,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C201" t="n">
         <v>126</v>
@@ -5591,15 +6193,18 @@
         <v>126</v>
       </c>
       <c r="E201" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F201" t="n">
-        <v>1713.8619</v>
+        <v>3673.7595</v>
       </c>
       <c r="G201" t="n">
-        <v>128.7666666666667</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C202" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D202" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E202" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F202" t="n">
-        <v>1242.2619</v>
+        <v>1713.8619</v>
       </c>
       <c r="G202" t="n">
-        <v>128.75</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C203" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D203" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E203" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F203" t="n">
-        <v>14592.4931</v>
+        <v>1242.2619</v>
       </c>
       <c r="G203" t="n">
-        <v>128.7666666666667</v>
+        <v>128.75</v>
       </c>
       <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>127</v>
+      </c>
+      <c r="C204" t="n">
         <v>126</v>
       </c>
-      <c r="C204" t="n">
-        <v>125</v>
-      </c>
       <c r="D204" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E204" t="n">
         <v>125</v>
       </c>
       <c r="F204" t="n">
-        <v>3445.5856</v>
+        <v>14592.4931</v>
       </c>
       <c r="G204" t="n">
-        <v>128.65</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,10 +6300,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>126</v>
+      </c>
+      <c r="C205" t="n">
         <v>125</v>
-      </c>
-      <c r="C205" t="n">
-        <v>126</v>
       </c>
       <c r="D205" t="n">
         <v>126</v>
@@ -5698,12 +6312,15 @@
         <v>125</v>
       </c>
       <c r="F205" t="n">
-        <v>2675.1247</v>
+        <v>3445.5856</v>
       </c>
       <c r="G205" t="n">
-        <v>128.6166666666667</v>
+        <v>128.65</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5718,18 +6335,21 @@
         <v>126</v>
       </c>
       <c r="D206" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E206" t="n">
         <v>125</v>
       </c>
       <c r="F206" t="n">
-        <v>2516.1168</v>
+        <v>2675.1247</v>
       </c>
       <c r="G206" t="n">
         <v>128.6166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C207" t="n">
         <v>126</v>
       </c>
       <c r="D207" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E207" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F207" t="n">
-        <v>178.7637</v>
+        <v>2516.1168</v>
       </c>
       <c r="G207" t="n">
         <v>128.6166666666667</v>
       </c>
       <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>126</v>
       </c>
       <c r="F208" t="n">
-        <v>56</v>
+        <v>178.7637</v>
       </c>
       <c r="G208" t="n">
-        <v>128.5666666666667</v>
+        <v>128.6166666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>126</v>
       </c>
       <c r="F209" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G209" t="n">
-        <v>128.5</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>126</v>
       </c>
       <c r="F210" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G210" t="n">
-        <v>128.4833333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>126</v>
       </c>
       <c r="C211" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D211" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E211" t="n">
         <v>126</v>
       </c>
       <c r="F211" t="n">
-        <v>1659.175</v>
+        <v>38</v>
       </c>
       <c r="G211" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4833333333333</v>
       </c>
       <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,21 +6506,24 @@
         <v>126</v>
       </c>
       <c r="C212" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D212" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E212" t="n">
         <v>126</v>
       </c>
       <c r="F212" t="n">
-        <v>8</v>
+        <v>1659.175</v>
       </c>
       <c r="G212" t="n">
-        <v>128.4166666666667</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>126</v>
       </c>
       <c r="F213" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G213" t="n">
-        <v>128.3833333333333</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D214" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E214" t="n">
         <v>126</v>
       </c>
       <c r="F214" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G214" t="n">
-        <v>128.4</v>
+        <v>128.3833333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +6590,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C215" t="n">
         <v>128</v>
@@ -5958,12 +6602,15 @@
         <v>126</v>
       </c>
       <c r="F215" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="G215" t="n">
-        <v>128.4166666666667</v>
+        <v>128.4</v>
       </c>
       <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C216" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D216" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E216" t="n">
         <v>126</v>
       </c>
       <c r="F216" t="n">
-        <v>6792.0272</v>
+        <v>8</v>
       </c>
       <c r="G216" t="n">
-        <v>128.4666666666667</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C217" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D217" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E217" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F217" t="n">
-        <v>507</v>
+        <v>6792.0272</v>
       </c>
       <c r="G217" t="n">
-        <v>128.5</v>
+        <v>128.4666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,21 +6680,24 @@
         <v>127</v>
       </c>
       <c r="C218" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D218" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E218" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F218" t="n">
-        <v>24880.1756</v>
+        <v>507</v>
       </c>
       <c r="G218" t="n">
-        <v>128.5333333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,21 +6709,24 @@
         <v>127</v>
       </c>
       <c r="C219" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D219" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E219" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F219" t="n">
-        <v>683.3981</v>
+        <v>24880.1756</v>
       </c>
       <c r="G219" t="n">
-        <v>128.5166666666667</v>
+        <v>128.5333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +6747,15 @@
         <v>127</v>
       </c>
       <c r="F220" t="n">
-        <v>2946.3327</v>
+        <v>683.3981</v>
       </c>
       <c r="G220" t="n">
         <v>128.5166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C221" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D221" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E221" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F221" t="n">
-        <v>5541.926</v>
+        <v>2946.3327</v>
       </c>
       <c r="G221" t="n">
-        <v>128.5666666666667</v>
+        <v>128.5166666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C222" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D222" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E222" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F222" t="n">
-        <v>11829.1594</v>
+        <v>5541.926</v>
       </c>
       <c r="G222" t="n">
-        <v>128.6333333333333</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>130</v>
+      </c>
+      <c r="C223" t="n">
         <v>131</v>
-      </c>
-      <c r="C223" t="n">
-        <v>130</v>
       </c>
       <c r="D223" t="n">
         <v>131</v>
       </c>
       <c r="E223" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F223" t="n">
-        <v>2440.1251</v>
+        <v>11829.1594</v>
       </c>
       <c r="G223" t="n">
-        <v>128.6833333333333</v>
+        <v>128.6333333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C224" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D224" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E224" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F224" t="n">
-        <v>985.8606</v>
+        <v>2440.1251</v>
       </c>
       <c r="G224" t="n">
-        <v>128.7166666666667</v>
+        <v>128.6833333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E225" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F225" t="n">
-        <v>1257.034</v>
+        <v>985.8606</v>
       </c>
       <c r="G225" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7166666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>128</v>
       </c>
       <c r="F226" t="n">
-        <v>8590.191000000001</v>
+        <v>1257.034</v>
       </c>
       <c r="G226" t="n">
-        <v>128.75</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>128</v>
       </c>
       <c r="F227" t="n">
-        <v>3942.1875</v>
+        <v>8590.191000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>128.7666666666667</v>
+        <v>128.75</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E228" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F228" t="n">
-        <v>2587.6892</v>
+        <v>3942.1875</v>
       </c>
       <c r="G228" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E229" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>2587.6892</v>
       </c>
       <c r="G229" t="n">
         <v>128.7333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>130</v>
       </c>
       <c r="F230" t="n">
-        <v>1908.6944</v>
+        <v>5</v>
       </c>
       <c r="G230" t="n">
         <v>128.7333333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>130</v>
       </c>
       <c r="F231" t="n">
-        <v>5324.884615384615</v>
+        <v>1908.6944</v>
       </c>
       <c r="G231" t="n">
         <v>128.7333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>130</v>
       </c>
       <c r="F232" t="n">
-        <v>7.3269</v>
+        <v>5324.884615384615</v>
       </c>
       <c r="G232" t="n">
-        <v>128.7166666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>130</v>
       </c>
       <c r="F233" t="n">
-        <v>1076.923076923077</v>
+        <v>7.3269</v>
       </c>
       <c r="G233" t="n">
-        <v>128.7</v>
+        <v>128.7166666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>130</v>
       </c>
       <c r="C234" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D234" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E234" t="n">
         <v>130</v>
       </c>
       <c r="F234" t="n">
-        <v>23853.85080769231</v>
+        <v>1076.923076923077</v>
       </c>
       <c r="G234" t="n">
         <v>128.7</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>130</v>
+      </c>
+      <c r="C235" t="n">
         <v>132</v>
       </c>
-      <c r="C235" t="n">
-        <v>133</v>
-      </c>
       <c r="D235" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E235" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F235" t="n">
-        <v>10213.2385</v>
+        <v>23853.85080769231</v>
       </c>
       <c r="G235" t="n">
-        <v>128.7333333333333</v>
+        <v>128.7</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,10 +7199,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>132</v>
+      </c>
+      <c r="C236" t="n">
         <v>133</v>
-      </c>
-      <c r="C236" t="n">
-        <v>132</v>
       </c>
       <c r="D236" t="n">
         <v>133</v>
@@ -6504,12 +7211,15 @@
         <v>132</v>
       </c>
       <c r="F236" t="n">
-        <v>191.8836</v>
+        <v>10213.2385</v>
       </c>
       <c r="G236" t="n">
-        <v>128.75</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>133</v>
+      </c>
+      <c r="C237" t="n">
         <v>132</v>
-      </c>
-      <c r="C237" t="n">
-        <v>131</v>
       </c>
       <c r="D237" t="n">
         <v>133</v>
       </c>
       <c r="E237" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F237" t="n">
-        <v>3920.2517</v>
+        <v>191.8836</v>
       </c>
       <c r="G237" t="n">
-        <v>128.7333333333333</v>
+        <v>128.75</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C238" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D238" t="n">
         <v>133</v>
       </c>
       <c r="E238" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F238" t="n">
-        <v>6135.1542</v>
+        <v>3920.2517</v>
       </c>
       <c r="G238" t="n">
-        <v>128.7666666666667</v>
+        <v>128.7333333333333</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D239" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E239" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F239" t="n">
-        <v>14080.36316716418</v>
+        <v>6135.1542</v>
       </c>
       <c r="G239" t="n">
-        <v>128.8166666666667</v>
+        <v>128.7666666666667</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C240" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D240" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E240" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F240" t="n">
-        <v>102239.5963328358</v>
+        <v>14080.36316716418</v>
       </c>
       <c r="G240" t="n">
-        <v>128.9333333333333</v>
+        <v>128.8166666666667</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C241" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D241" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E241" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F241" t="n">
-        <v>179698.5607424658</v>
+        <v>102239.5963328358</v>
       </c>
       <c r="G241" t="n">
-        <v>129.1666666666667</v>
+        <v>128.9333333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,7 +7373,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C242" t="n">
         <v>145</v>
@@ -6657,15 +7382,18 @@
         <v>146</v>
       </c>
       <c r="E242" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F242" t="n">
-        <v>46402.9235</v>
+        <v>179698.5607424658</v>
       </c>
       <c r="G242" t="n">
-        <v>129.4</v>
+        <v>129.1666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>145</v>
+      </c>
+      <c r="C243" t="n">
+        <v>145</v>
+      </c>
+      <c r="D243" t="n">
+        <v>146</v>
+      </c>
+      <c r="E243" t="n">
         <v>142</v>
       </c>
-      <c r="C243" t="n">
-        <v>136</v>
-      </c>
-      <c r="D243" t="n">
-        <v>142</v>
-      </c>
-      <c r="E243" t="n">
-        <v>135</v>
-      </c>
       <c r="F243" t="n">
-        <v>60381.7917</v>
+        <v>46402.9235</v>
       </c>
       <c r="G243" t="n">
-        <v>129.4666666666667</v>
+        <v>129.4</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,25 +7431,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>142</v>
+      </c>
+      <c r="C244" t="n">
         <v>136</v>
       </c>
-      <c r="C244" t="n">
-        <v>140</v>
-      </c>
       <c r="D244" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E244" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F244" t="n">
-        <v>84017.36734285715</v>
+        <v>60381.7917</v>
       </c>
       <c r="G244" t="n">
-        <v>129.6166666666667</v>
+        <v>129.4666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C245" t="n">
         <v>140</v>
       </c>
       <c r="D245" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E245" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F245" t="n">
-        <v>4236.1516</v>
+        <v>84017.36734285715</v>
       </c>
       <c r="G245" t="n">
-        <v>129.75</v>
+        <v>129.6166666666667</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C246" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D246" t="n">
         <v>140</v>
       </c>
       <c r="E246" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F246" t="n">
-        <v>8172.7352</v>
+        <v>4236.1516</v>
       </c>
       <c r="G246" t="n">
-        <v>129.8833333333333</v>
+        <v>129.75</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,7 +7518,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C247" t="n">
         <v>139</v>
@@ -6787,15 +7527,18 @@
         <v>140</v>
       </c>
       <c r="E247" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F247" t="n">
-        <v>10686.8028</v>
+        <v>8172.7352</v>
       </c>
       <c r="G247" t="n">
-        <v>130.0166666666667</v>
+        <v>129.8833333333333</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C248" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D248" t="n">
+        <v>140</v>
+      </c>
+      <c r="E248" t="n">
         <v>139</v>
       </c>
-      <c r="E248" t="n">
-        <v>137</v>
-      </c>
       <c r="F248" t="n">
-        <v>2642</v>
+        <v>10686.8028</v>
       </c>
       <c r="G248" t="n">
-        <v>130.1333333333333</v>
+        <v>130.0166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,7 +7576,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C249" t="n">
         <v>137</v>
@@ -6842,12 +7588,15 @@
         <v>137</v>
       </c>
       <c r="F249" t="n">
-        <v>19162.8411</v>
+        <v>2642</v>
       </c>
       <c r="G249" t="n">
-        <v>130.25</v>
+        <v>130.1333333333333</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C250" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D250" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E250" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F250" t="n">
-        <v>217.7084</v>
+        <v>19162.8411</v>
       </c>
       <c r="G250" t="n">
-        <v>130.4</v>
+        <v>130.25</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,21 +7637,24 @@
         <v>138</v>
       </c>
       <c r="C251" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D251" t="n">
         <v>138</v>
       </c>
       <c r="E251" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F251" t="n">
-        <v>24001.4318</v>
+        <v>217.7084</v>
       </c>
       <c r="G251" t="n">
-        <v>130.5166666666667</v>
+        <v>130.4</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>138</v>
+      </c>
+      <c r="C252" t="n">
         <v>137</v>
       </c>
-      <c r="C252" t="n">
-        <v>136</v>
-      </c>
       <c r="D252" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E252" t="n">
         <v>136</v>
       </c>
       <c r="F252" t="n">
-        <v>48024.00924117647</v>
+        <v>24001.4318</v>
       </c>
       <c r="G252" t="n">
-        <v>130.6166666666667</v>
+        <v>130.5166666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>137</v>
+      </c>
+      <c r="C253" t="n">
         <v>136</v>
       </c>
-      <c r="C253" t="n">
-        <v>132</v>
-      </c>
       <c r="D253" t="n">
+        <v>137</v>
+      </c>
+      <c r="E253" t="n">
         <v>136</v>
       </c>
-      <c r="E253" t="n">
-        <v>132</v>
-      </c>
       <c r="F253" t="n">
-        <v>48079.8596</v>
+        <v>48024.00924117647</v>
       </c>
       <c r="G253" t="n">
-        <v>130.6666666666667</v>
+        <v>130.6166666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C254" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D254" t="n">
         <v>136</v>
       </c>
       <c r="E254" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F254" t="n">
-        <v>5335.148711764706</v>
+        <v>48079.8596</v>
       </c>
       <c r="G254" t="n">
-        <v>130.7333333333333</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>133</v>
+      </c>
+      <c r="C255" t="n">
         <v>135</v>
       </c>
-      <c r="C255" t="n">
-        <v>139</v>
-      </c>
       <c r="D255" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E255" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F255" t="n">
-        <v>28029.44168751587</v>
+        <v>5335.148711764706</v>
       </c>
       <c r="G255" t="n">
-        <v>130.9333333333333</v>
+        <v>130.7333333333333</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,10 +7779,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C256" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D256" t="n">
         <v>139</v>
@@ -7024,12 +7791,15 @@
         <v>135</v>
       </c>
       <c r="F256" t="n">
-        <v>42195.19061917211</v>
+        <v>28029.44168751587</v>
       </c>
       <c r="G256" t="n">
-        <v>131.05</v>
+        <v>130.9333333333333</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7041,21 +7811,24 @@
         <v>137</v>
       </c>
       <c r="C257" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D257" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E257" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F257" t="n">
-        <v>352</v>
+        <v>42195.19061917211</v>
       </c>
       <c r="G257" t="n">
-        <v>131.2166666666667</v>
+        <v>131.05</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C258" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D258" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E258" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F258" t="n">
-        <v>3026.8805</v>
+        <v>352</v>
       </c>
       <c r="G258" t="n">
-        <v>131.3833333333333</v>
+        <v>131.2166666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>135</v>
+      </c>
+      <c r="C259" t="n">
         <v>136</v>
       </c>
-      <c r="C259" t="n">
-        <v>137</v>
-      </c>
       <c r="D259" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E259" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F259" t="n">
-        <v>1445.492618248175</v>
+        <v>3026.8805</v>
       </c>
       <c r="G259" t="n">
-        <v>131.5833333333333</v>
+        <v>131.3833333333333</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C260" t="n">
         <v>137</v>
@@ -7125,15 +7904,18 @@
         <v>137</v>
       </c>
       <c r="E260" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F260" t="n">
-        <v>904</v>
+        <v>1445.492618248175</v>
       </c>
       <c r="G260" t="n">
-        <v>131.7666666666667</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>137</v>
       </c>
       <c r="F261" t="n">
-        <v>2157.135181751825</v>
+        <v>904</v>
       </c>
       <c r="G261" t="n">
-        <v>131.95</v>
+        <v>131.7666666666667</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E262" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F262" t="n">
-        <v>6462.5664</v>
+        <v>2157.135181751825</v>
       </c>
       <c r="G262" t="n">
-        <v>132.1166666666667</v>
+        <v>131.95</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7206,12 +7994,15 @@
         <v>138</v>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>6462.5664</v>
       </c>
       <c r="G263" t="n">
-        <v>132.3166666666667</v>
+        <v>132.1166666666667</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C264" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D264" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E264" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F264" t="n">
-        <v>50809.62694965518</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
-        <v>132.5833333333333</v>
+        <v>132.3166666666667</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C265" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D265" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E265" t="n">
         <v>139</v>
       </c>
       <c r="F265" t="n">
-        <v>32635.2647</v>
+        <v>50809.62694965518</v>
       </c>
       <c r="G265" t="n">
-        <v>132.8</v>
+        <v>132.5833333333333</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,24 +8069,27 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>142</v>
+      </c>
+      <c r="C266" t="n">
         <v>139</v>
       </c>
-      <c r="C266" t="n">
-        <v>138</v>
-      </c>
       <c r="D266" t="n">
+        <v>142</v>
+      </c>
+      <c r="E266" t="n">
         <v>139</v>
       </c>
-      <c r="E266" t="n">
-        <v>138</v>
-      </c>
       <c r="F266" t="n">
-        <v>48363.434</v>
+        <v>32635.2647</v>
       </c>
       <c r="G266" t="n">
-        <v>133</v>
+        <v>132.8</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,21 +8101,24 @@
         <v>139</v>
       </c>
       <c r="C267" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D267" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E267" t="n">
         <v>138</v>
       </c>
       <c r="F267" t="n">
-        <v>19898.0518</v>
+        <v>48363.434</v>
       </c>
       <c r="G267" t="n">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>139</v>
+      </c>
+      <c r="C268" t="n">
         <v>141</v>
       </c>
-      <c r="C268" t="n">
-        <v>143</v>
-      </c>
       <c r="D268" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E268" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F268" t="n">
-        <v>34852.7815</v>
+        <v>19898.0518</v>
       </c>
       <c r="G268" t="n">
-        <v>133.5333333333333</v>
+        <v>133.25</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C269" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D269" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E269" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F269" t="n">
-        <v>67104.16469999999</v>
+        <v>34852.7815</v>
       </c>
       <c r="G269" t="n">
-        <v>133.85</v>
+        <v>133.5333333333333</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>144</v>
+      </c>
+      <c r="C270" t="n">
         <v>145</v>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
+        <v>145</v>
+      </c>
+      <c r="E270" t="n">
         <v>144</v>
       </c>
-      <c r="D270" t="n">
-        <v>147</v>
-      </c>
-      <c r="E270" t="n">
-        <v>143</v>
-      </c>
       <c r="F270" t="n">
-        <v>77952.7611</v>
+        <v>67104.16469999999</v>
       </c>
       <c r="G270" t="n">
-        <v>134.15</v>
+        <v>133.85</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,10 +8214,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
+        <v>145</v>
+      </c>
+      <c r="C271" t="n">
         <v>144</v>
-      </c>
-      <c r="C271" t="n">
-        <v>145</v>
       </c>
       <c r="D271" t="n">
         <v>147</v>
@@ -7414,12 +8226,15 @@
         <v>143</v>
       </c>
       <c r="F271" t="n">
-        <v>44526.0986</v>
+        <v>77952.7611</v>
       </c>
       <c r="G271" t="n">
-        <v>134.4333333333333</v>
+        <v>134.15</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,24 +8243,27 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>144</v>
+      </c>
+      <c r="C272" t="n">
         <v>145</v>
-      </c>
-      <c r="C272" t="n">
-        <v>147</v>
       </c>
       <c r="D272" t="n">
         <v>147</v>
       </c>
       <c r="E272" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F272" t="n">
-        <v>37511.2832</v>
+        <v>44526.0986</v>
       </c>
       <c r="G272" t="n">
-        <v>134.7833333333333</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C273" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D273" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E273" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F273" t="n">
-        <v>23602.0709</v>
+        <v>37511.2832</v>
       </c>
       <c r="G273" t="n">
-        <v>135.0833333333333</v>
+        <v>134.7833333333333</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7483,541 +8304,24 @@
         <v>146</v>
       </c>
       <c r="C274" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D274" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E274" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F274" t="n">
-        <v>122699.3312</v>
+        <v>23602.0709</v>
       </c>
       <c r="G274" t="n">
-        <v>135.45</v>
+        <v>135.0833333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>149</v>
-      </c>
-      <c r="C275" t="n">
-        <v>152</v>
-      </c>
-      <c r="D275" t="n">
-        <v>152</v>
-      </c>
-      <c r="E275" t="n">
-        <v>149</v>
-      </c>
-      <c r="F275" t="n">
-        <v>271547.039</v>
-      </c>
-      <c r="G275" t="n">
-        <v>135.85</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>150</v>
-      </c>
-      <c r="C276" t="n">
-        <v>149</v>
-      </c>
-      <c r="D276" t="n">
-        <v>152</v>
-      </c>
-      <c r="E276" t="n">
-        <v>149</v>
-      </c>
-      <c r="F276" t="n">
-        <v>48825.5869</v>
-      </c>
-      <c r="G276" t="n">
-        <v>136.1833333333333</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>150</v>
-      </c>
-      <c r="C277" t="n">
-        <v>150</v>
-      </c>
-      <c r="D277" t="n">
-        <v>150</v>
-      </c>
-      <c r="E277" t="n">
-        <v>148</v>
-      </c>
-      <c r="F277" t="n">
-        <v>11235.4262</v>
-      </c>
-      <c r="G277" t="n">
-        <v>136.55</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>150</v>
-      </c>
-      <c r="C278" t="n">
-        <v>147</v>
-      </c>
-      <c r="D278" t="n">
-        <v>150</v>
-      </c>
-      <c r="E278" t="n">
-        <v>145</v>
-      </c>
-      <c r="F278" t="n">
-        <v>76470.6058</v>
-      </c>
-      <c r="G278" t="n">
-        <v>136.85</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>147</v>
-      </c>
-      <c r="C279" t="n">
-        <v>147</v>
-      </c>
-      <c r="D279" t="n">
-        <v>147</v>
-      </c>
-      <c r="E279" t="n">
-        <v>145</v>
-      </c>
-      <c r="F279" t="n">
-        <v>96473.698</v>
-      </c>
-      <c r="G279" t="n">
-        <v>137.1833333333333</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>147</v>
-      </c>
-      <c r="C280" t="n">
-        <v>149</v>
-      </c>
-      <c r="D280" t="n">
-        <v>149</v>
-      </c>
-      <c r="E280" t="n">
-        <v>147</v>
-      </c>
-      <c r="F280" t="n">
-        <v>64401.8717</v>
-      </c>
-      <c r="G280" t="n">
-        <v>137.55</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>148</v>
-      </c>
-      <c r="C281" t="n">
-        <v>149</v>
-      </c>
-      <c r="D281" t="n">
-        <v>149</v>
-      </c>
-      <c r="E281" t="n">
-        <v>148</v>
-      </c>
-      <c r="F281" t="n">
-        <v>9235.2929</v>
-      </c>
-      <c r="G281" t="n">
-        <v>137.8833333333333</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>149</v>
-      </c>
-      <c r="C282" t="n">
-        <v>146</v>
-      </c>
-      <c r="D282" t="n">
-        <v>149</v>
-      </c>
-      <c r="E282" t="n">
-        <v>146</v>
-      </c>
-      <c r="F282" t="n">
-        <v>37508.9315</v>
-      </c>
-      <c r="G282" t="n">
-        <v>138.1333333333333</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>146</v>
-      </c>
-      <c r="C283" t="n">
-        <v>149</v>
-      </c>
-      <c r="D283" t="n">
-        <v>149</v>
-      </c>
-      <c r="E283" t="n">
-        <v>146</v>
-      </c>
-      <c r="F283" t="n">
-        <v>18566.3208</v>
-      </c>
-      <c r="G283" t="n">
-        <v>138.45</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>148</v>
-      </c>
-      <c r="C284" t="n">
-        <v>149</v>
-      </c>
-      <c r="D284" t="n">
-        <v>149</v>
-      </c>
-      <c r="E284" t="n">
-        <v>146</v>
-      </c>
-      <c r="F284" t="n">
-        <v>52784.21663020134</v>
-      </c>
-      <c r="G284" t="n">
-        <v>138.7833333333333</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>147</v>
-      </c>
-      <c r="C285" t="n">
-        <v>153</v>
-      </c>
-      <c r="D285" t="n">
-        <v>153</v>
-      </c>
-      <c r="E285" t="n">
-        <v>147</v>
-      </c>
-      <c r="F285" t="n">
-        <v>85644.31726914506</v>
-      </c>
-      <c r="G285" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>152</v>
-      </c>
-      <c r="C286" t="n">
-        <v>152</v>
-      </c>
-      <c r="D286" t="n">
-        <v>152</v>
-      </c>
-      <c r="E286" t="n">
-        <v>150</v>
-      </c>
-      <c r="F286" t="n">
-        <v>26195.1158</v>
-      </c>
-      <c r="G286" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>150</v>
-      </c>
-      <c r="C287" t="n">
-        <v>153</v>
-      </c>
-      <c r="D287" t="n">
-        <v>154</v>
-      </c>
-      <c r="E287" t="n">
-        <v>150</v>
-      </c>
-      <c r="F287" t="n">
-        <v>107130.3570941601</v>
-      </c>
-      <c r="G287" t="n">
-        <v>140.0166666666667</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>154</v>
-      </c>
-      <c r="C288" t="n">
-        <v>153</v>
-      </c>
-      <c r="D288" t="n">
-        <v>154</v>
-      </c>
-      <c r="E288" t="n">
-        <v>153</v>
-      </c>
-      <c r="F288" t="n">
-        <v>58400.35739934641</v>
-      </c>
-      <c r="G288" t="n">
-        <v>140.45</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>154</v>
-      </c>
-      <c r="C289" t="n">
-        <v>154</v>
-      </c>
-      <c r="D289" t="n">
-        <v>154</v>
-      </c>
-      <c r="E289" t="n">
-        <v>154</v>
-      </c>
-      <c r="F289" t="n">
-        <v>5616.4343</v>
-      </c>
-      <c r="G289" t="n">
-        <v>140.85</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>154</v>
-      </c>
-      <c r="C290" t="n">
-        <v>153</v>
-      </c>
-      <c r="D290" t="n">
-        <v>154</v>
-      </c>
-      <c r="E290" t="n">
-        <v>152</v>
-      </c>
-      <c r="F290" t="n">
-        <v>8315.5255</v>
-      </c>
-      <c r="G290" t="n">
-        <v>141.2333333333333</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>152</v>
-      </c>
-      <c r="C291" t="n">
-        <v>152</v>
-      </c>
-      <c r="D291" t="n">
-        <v>152</v>
-      </c>
-      <c r="E291" t="n">
-        <v>152</v>
-      </c>
-      <c r="F291" t="n">
-        <v>17535.8424</v>
-      </c>
-      <c r="G291" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>153</v>
-      </c>
-      <c r="C292" t="n">
-        <v>152</v>
-      </c>
-      <c r="D292" t="n">
-        <v>153</v>
-      </c>
-      <c r="E292" t="n">
-        <v>152</v>
-      </c>
-      <c r="F292" t="n">
-        <v>37114.9764</v>
-      </c>
-      <c r="G292" t="n">
-        <v>141.9666666666667</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>152</v>
-      </c>
-      <c r="C293" t="n">
-        <v>151</v>
-      </c>
-      <c r="D293" t="n">
-        <v>152</v>
-      </c>
-      <c r="E293" t="n">
-        <v>150</v>
-      </c>
-      <c r="F293" t="n">
-        <v>29011.2009</v>
-      </c>
-      <c r="G293" t="n">
-        <v>142.3166666666667</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>152</v>
-      </c>
-      <c r="C294" t="n">
-        <v>146</v>
-      </c>
-      <c r="D294" t="n">
-        <v>152</v>
-      </c>
-      <c r="E294" t="n">
-        <v>146</v>
-      </c>
-      <c r="F294" t="n">
-        <v>61225.1351</v>
-      </c>
-      <c r="G294" t="n">
-        <v>142.55</v>
-      </c>
-      <c r="H294" t="n">
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
